--- a/data/case1/14/Q_device_13.xlsx
+++ b/data/case1/14/Q_device_13.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.022849229494321662</v>
+        <v>-0.056054599942534658</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.022925413856520131</v>
+        <v>-0.056263324147086652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.024874136153901792</v>
+        <v>-0.060019046902855672</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.024203305191360543</v>
+        <v>-0.060019425050125252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.029964746285113905</v>
+        <v>-0.024621027669214476</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.029973998097277209</v>
+        <v>-0.024615383348255516</v>
       </c>
     </row>
     <row r="4">
